--- a/uploads/EspecificoCategoria/Mina Panulcillo.xlsx
+++ b/uploads/EspecificoCategoria/Mina Panulcillo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/EspecificoCategoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11FD319E-2C7B-4A34-954E-BFAFFD0FADCF}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C507FF0A-0B5D-40AF-A8CC-7FB39B12A0C2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F26"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="4">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F2" s="3">
         <v>4493007</v>
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="4">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F3" s="3">
         <v>4493007</v>
@@ -510,7 +510,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="4">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F4" s="3">
         <v>2151179</v>
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="4">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F5" s="3">
         <v>1391966</v>
@@ -544,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F6" s="3">
         <v>1100000</v>
@@ -561,7 +561,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F7" s="3">
         <v>665000</v>
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>500000</v>
@@ -595,7 +595,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>200000</v>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>8000000</v>
@@ -629,7 +629,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F11" s="5">
         <v>5102388</v>
@@ -646,7 +646,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F12" s="5">
         <v>3332519</v>
@@ -663,7 +663,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F13" s="5">
         <v>2151179</v>
@@ -680,7 +680,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F14" s="5">
         <v>2000000</v>
@@ -697,7 +697,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="7">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F15" s="5">
         <v>500000</v>
@@ -714,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F16" s="5">
         <v>50000</v>
@@ -731,7 +731,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F17" s="5">
         <v>4083</v>
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F18" s="5">
         <v>2606400</v>
@@ -765,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F19" s="5">
         <v>3620000</v>
@@ -782,7 +782,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F20" s="5">
         <v>50000</v>
@@ -799,7 +799,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F21" s="5">
         <v>50000</v>
@@ -816,7 +816,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F22" s="5">
         <v>200000</v>
@@ -833,7 +833,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F23" s="5">
         <v>532375</v>
@@ -850,7 +850,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F24" s="5">
         <v>354916</v>
@@ -867,7 +867,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F25" s="5">
         <v>354916</v>
@@ -884,7 +884,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F26" s="5">
         <v>1774582</v>

--- a/uploads/EspecificoCategoria/Mina Panulcillo.xlsx
+++ b/uploads/EspecificoCategoria/Mina Panulcillo.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/EspecificoCategoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C507FF0A-0B5D-40AF-A8CC-7FB39B12A0C2}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{507E3721-0DF3-4672-90D6-0012CFD231CB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -77,7 +88,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +99,18 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -142,17 +165,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,14 +463,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.7265625" customWidth="1"/>
     <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -465,429 +494,429 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
         <v>44001</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9">
         <v>50</v>
       </c>
-      <c r="F2" s="3">
-        <v>4493007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="F2" s="11">
+        <v>5170.318757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12">
         <v>44002</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9">
         <v>50</v>
       </c>
-      <c r="F3" s="3">
-        <v>4493007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="F3" s="11">
+        <v>5170.318757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
         <v>44003</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8">
         <v>1</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="9">
         <v>50</v>
       </c>
-      <c r="F4" s="3">
-        <v>2151179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="F4" s="11">
+        <v>2475.4649020000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
         <v>44004</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8">
         <v>2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="9">
         <v>50</v>
       </c>
-      <c r="F5" s="3">
-        <v>1391966</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="F5" s="11">
+        <v>1601.8020710000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
         <v>44006</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8">
         <v>2</v>
       </c>
-      <c r="D6" s="4">
-        <v>100</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1100000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="D6" s="9">
+        <v>100</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1265.8227850000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
         <v>44007</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8">
         <v>2</v>
       </c>
-      <c r="D7" s="4">
-        <v>100</v>
-      </c>
-      <c r="F7" s="3">
-        <v>665000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="D7" s="9">
+        <v>100</v>
+      </c>
+      <c r="F7" s="11">
+        <v>765.24741080000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
         <v>44008</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D8" s="4">
-        <v>100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="D8" s="9">
+        <v>100</v>
+      </c>
+      <c r="F8" s="11">
+        <v>575.37399310000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
         <v>44009</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8">
         <v>2</v>
       </c>
-      <c r="D9" s="4">
-        <v>100</v>
-      </c>
-      <c r="F9" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="D9" s="9">
+        <v>100</v>
+      </c>
+      <c r="F9" s="11">
+        <v>230.14959719999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
         <v>44011</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="D10" s="4">
-        <v>100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>8000000</v>
+      <c r="D10" s="9">
+        <v>100</v>
+      </c>
+      <c r="F10" s="11">
+        <v>9205.9838899999995</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>44014</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5">
-        <v>6</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5">
         <v>50</v>
       </c>
-      <c r="F11" s="5">
-        <v>5102388</v>
+      <c r="F11" s="6">
+        <v>5871.5627160000004</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44015</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5">
         <v>50</v>
       </c>
-      <c r="F12" s="5">
-        <v>3332519</v>
+      <c r="F12" s="6">
+        <v>3834.8895280000002</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>44016</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>50</v>
       </c>
-      <c r="F13" s="5">
-        <v>2151179</v>
+      <c r="F13" s="6">
+        <v>2475.4649020000002</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>44018</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>11</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>50</v>
       </c>
-      <c r="F14" s="5">
-        <v>2000000</v>
+      <c r="F14" s="6">
+        <v>2301.4959720000002</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44019</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>2</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>50</v>
       </c>
-      <c r="F15" s="5">
-        <v>500000</v>
+      <c r="F15" s="6">
+        <v>575.37399310000001</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>44020</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5">
-        <v>6</v>
-      </c>
-      <c r="D16" s="7">
-        <v>100</v>
-      </c>
-      <c r="F16" s="5">
-        <v>50000</v>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5">
+        <v>100</v>
+      </c>
+      <c r="F16" s="6">
+        <v>57.537399309999998</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44021</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
         <v>18</v>
       </c>
-      <c r="D17" s="7">
-        <v>100</v>
-      </c>
-      <c r="F17" s="5">
-        <v>4083</v>
+      <c r="D17" s="5">
+        <v>100</v>
+      </c>
+      <c r="F17" s="6">
+        <v>4.6985040280000003</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44023</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>2</v>
       </c>
-      <c r="D18" s="7">
-        <v>100</v>
-      </c>
-      <c r="F18" s="5">
-        <v>2606400</v>
+      <c r="D18" s="5">
+        <v>100</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2999.3095509999998</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>44024</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
-        <v>100</v>
-      </c>
-      <c r="F19" s="5">
-        <v>3620000</v>
+      <c r="D19" s="5">
+        <v>100</v>
+      </c>
+      <c r="F19" s="6">
+        <v>4165.7077099999997</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>44026</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5">
-        <v>6</v>
-      </c>
-      <c r="D20" s="7">
-        <v>100</v>
-      </c>
-      <c r="F20" s="5">
-        <v>50000</v>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6</v>
+      </c>
+      <c r="D20" s="5">
+        <v>100</v>
+      </c>
+      <c r="F20" s="6">
+        <v>57.537399309999998</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44027</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="5">
-        <v>6</v>
-      </c>
-      <c r="D21" s="7">
-        <v>100</v>
-      </c>
-      <c r="F21" s="5">
-        <v>50000</v>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6</v>
+      </c>
+      <c r="D21" s="5">
+        <v>100</v>
+      </c>
+      <c r="F21" s="6">
+        <v>57.537399309999998</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>44028</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="5">
-        <v>6</v>
-      </c>
-      <c r="D22" s="7">
-        <v>100</v>
-      </c>
-      <c r="F22" s="5">
-        <v>200000</v>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>6</v>
+      </c>
+      <c r="D22" s="5">
+        <v>100</v>
+      </c>
+      <c r="F22" s="6">
+        <v>230.14959719999999</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>44030</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="5">
-        <v>6</v>
-      </c>
-      <c r="D23" s="7">
-        <v>100</v>
-      </c>
-      <c r="F23" s="5">
-        <v>532375</v>
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3">
+        <v>6</v>
+      </c>
+      <c r="D23" s="5">
+        <v>100</v>
+      </c>
+      <c r="F23" s="6">
+        <v>612.62945909999996</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44031</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="5">
-        <v>6</v>
-      </c>
-      <c r="D24" s="7">
-        <v>100</v>
-      </c>
-      <c r="F24" s="5">
-        <v>354916</v>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6</v>
+      </c>
+      <c r="D24" s="5">
+        <v>100</v>
+      </c>
+      <c r="F24" s="6">
+        <v>408.41887229999998</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>44032</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="5">
-        <v>6</v>
-      </c>
-      <c r="D25" s="7">
-        <v>100</v>
-      </c>
-      <c r="F25" s="5">
-        <v>354916</v>
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3">
+        <v>6</v>
+      </c>
+      <c r="D25" s="5">
+        <v>100</v>
+      </c>
+      <c r="F25" s="6">
+        <v>408.41887229999998</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>44034</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="5">
-        <v>6</v>
-      </c>
-      <c r="D26" s="7">
-        <v>100</v>
-      </c>
-      <c r="F26" s="5">
-        <v>1774582</v>
+      <c r="B26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3">
+        <v>6</v>
+      </c>
+      <c r="D26" s="5">
+        <v>100</v>
+      </c>
+      <c r="F26" s="6">
+        <v>2042.096663</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/EspecificoCategoria/Mina Panulcillo.xlsx
+++ b/uploads/EspecificoCategoria/Mina Panulcillo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/EspecificoCategoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{507E3721-0DF3-4672-90D6-0012CFD231CB}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91C32D50-F29C-4E01-94CE-A13A56843EE5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="13">
   <si>
     <t>id_categoria</t>
   </si>
@@ -64,6 +64,18 @@
   <si>
     <t>Un</t>
   </si>
+  <si>
+    <t>Ud</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>It/hm</t>
+  </si>
+  <si>
+    <t>hmes</t>
+  </si>
 </sst>
 </file>
 
@@ -72,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,8 +99,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,8 +133,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -161,11 +187,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -181,6 +218,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27:H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -749,7 +790,7 @@
         <v>57.537399309999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44021</v>
       </c>
@@ -766,7 +807,7 @@
         <v>4.6985040280000003</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44023</v>
       </c>
@@ -783,7 +824,7 @@
         <v>2999.3095509999998</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>44024</v>
       </c>
@@ -800,7 +841,7 @@
         <v>4165.7077099999997</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>44026</v>
       </c>
@@ -817,7 +858,7 @@
         <v>57.537399309999998</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44027</v>
       </c>
@@ -834,7 +875,7 @@
         <v>57.537399309999998</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>44028</v>
       </c>
@@ -851,7 +892,7 @@
         <v>230.14959719999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>44030</v>
       </c>
@@ -868,7 +909,7 @@
         <v>612.62945909999996</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44031</v>
       </c>
@@ -885,7 +926,7 @@
         <v>408.41887229999998</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>44032</v>
       </c>
@@ -902,7 +943,7 @@
         <v>408.41887229999998</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>44034</v>
       </c>
@@ -918,6 +959,888 @@
       <c r="F26" s="6">
         <v>2042.096663</v>
       </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="13">
+        <v>44140</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="15">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="F27" s="6">
+        <v>92.059838895281899</v>
+      </c>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="14">
+        <v>44141</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="15">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="F28" s="6">
+        <v>115.074798619102</v>
+      </c>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="13">
+        <v>44142</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="15">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="F29" s="6">
+        <v>115.074798619102</v>
+      </c>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="14">
+        <v>44143</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="15">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="F30" s="6">
+        <v>517.83659378595996</v>
+      </c>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="13">
+        <v>44144</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="15">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="F31" s="6">
+        <v>115.074798619102</v>
+      </c>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="14">
+        <v>44145</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="15">
+        <v>74</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="F32" s="6">
+        <v>34.522439585730702</v>
+      </c>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="13">
+        <v>44146</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="15">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="F33" s="6">
+        <v>443.03797468354401</v>
+      </c>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="14">
+        <v>44147</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="15">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="F34" s="6">
+        <v>632.911392405063</v>
+      </c>
+      <c r="H34" s="16"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="13">
+        <v>44148</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="15">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1150.7479861910199</v>
+      </c>
+      <c r="H35" s="16"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="14">
+        <v>44149</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="15">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="F36" s="6">
+        <v>138.08975834292201</v>
+      </c>
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="13">
+        <v>44150</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="15">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="F37" s="6">
+        <v>2301.4959723820398</v>
+      </c>
+      <c r="H37" s="16"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="14">
+        <v>44151</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="15">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="F38" s="6">
+        <v>3370.2531645569602</v>
+      </c>
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="13">
+        <v>44152</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="15">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="F39" s="6">
+        <v>2031.07019562715</v>
+      </c>
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="14">
+        <v>44153</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="15">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="F40" s="6">
+        <v>970.42577675488997</v>
+      </c>
+      <c r="H40" s="16"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="13">
+        <v>44154</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="15">
+        <v>347</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="F41" s="6">
+        <v>4.0249251350553603</v>
+      </c>
+      <c r="H41" s="16"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="14">
+        <v>44155</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="15">
+        <v>23</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1265.8227848101201</v>
+      </c>
+      <c r="H42" s="16"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="13">
+        <v>44156</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="15">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="F43" s="6">
+        <v>5366.5647295742201</v>
+      </c>
+      <c r="H43" s="16"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="14">
+        <v>44157</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="15">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>100</v>
+      </c>
+      <c r="F44" s="6">
+        <v>13454.204339963801</v>
+      </c>
+      <c r="H44" s="16"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="13">
+        <v>44158</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="15">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+      <c r="F45" s="6">
+        <v>2494.3187571921699</v>
+      </c>
+      <c r="H45" s="16"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="14">
+        <v>44159</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="15">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>100</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1738.46467203682</v>
+      </c>
+      <c r="H46" s="16"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="13">
+        <v>44160</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="15">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
+      </c>
+      <c r="F47" s="6">
+        <v>4988.6375143843497</v>
+      </c>
+      <c r="H47" s="16"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="14">
+        <v>44161</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="15">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+      <c r="F48" s="6">
+        <v>805.52359033371602</v>
+      </c>
+      <c r="H48" s="16"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="13">
+        <v>44162</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="15">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>100</v>
+      </c>
+      <c r="F49" s="6">
+        <v>4027.6179516685802</v>
+      </c>
+      <c r="H49" s="16"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="14">
+        <v>44163</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="15">
+        <v>26220</v>
+      </c>
+      <c r="D50">
+        <v>100</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0.949367088607594</v>
+      </c>
+      <c r="H50" s="16"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="13">
+        <v>44164</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="15">
+        <v>47880</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="F51" s="6">
+        <v>1.2071346375143801</v>
+      </c>
+      <c r="H51" s="16"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="14">
+        <v>44165</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="15">
+        <v>16061</v>
+      </c>
+      <c r="D52">
+        <v>100</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0.172616783438342</v>
+      </c>
+      <c r="H52" s="16"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="13">
+        <v>44166</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="15">
+        <v>11680</v>
+      </c>
+      <c r="D53">
+        <v>100</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0.17261219792865301</v>
+      </c>
+      <c r="H53" s="16"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="14">
+        <v>44167</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="15">
+        <v>228</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
+      </c>
+      <c r="F54" s="6">
+        <v>103.567318757192</v>
+      </c>
+      <c r="H54" s="16"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="13">
+        <v>44168</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="15">
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>100</v>
+      </c>
+      <c r="F55" s="6">
+        <v>2416.5707710011502</v>
+      </c>
+      <c r="H55" s="16"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="14">
+        <v>44169</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="15">
+        <v>146</v>
+      </c>
+      <c r="D56">
+        <v>100</v>
+      </c>
+      <c r="F56" s="6">
+        <v>690.448791714614</v>
+      </c>
+      <c r="H56" s="16"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="13">
+        <v>44170</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="15">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>100</v>
+      </c>
+      <c r="F57" s="6">
+        <v>6754.6733314154199</v>
+      </c>
+      <c r="H57" s="16"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="14">
+        <v>44171</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="15">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>100</v>
+      </c>
+      <c r="F58" s="6">
+        <v>4045.8450326045199</v>
+      </c>
+      <c r="H58" s="16"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="13">
+        <v>44172</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="15">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>100</v>
+      </c>
+      <c r="F59" s="6">
+        <v>4045.8450326045199</v>
+      </c>
+      <c r="H59" s="16"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="14">
+        <v>44173</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="15">
+        <v>8</v>
+      </c>
+      <c r="D60">
+        <v>100</v>
+      </c>
+      <c r="F60" s="6">
+        <v>4045.8449367088601</v>
+      </c>
+      <c r="H60" s="16"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="13">
+        <v>44174</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="15">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>100</v>
+      </c>
+      <c r="F61" s="6">
+        <v>4045.8450326045199</v>
+      </c>
+      <c r="H61" s="16"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="14">
+        <v>44175</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="15">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>100</v>
+      </c>
+      <c r="F62" s="6">
+        <v>4045.8450326045199</v>
+      </c>
+      <c r="H62" s="16"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="13">
+        <v>44176</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="15">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>100</v>
+      </c>
+      <c r="F63" s="6">
+        <v>3406.9894131185201</v>
+      </c>
+      <c r="H63" s="16"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="14">
+        <v>44177</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="15">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>100</v>
+      </c>
+      <c r="F64" s="6">
+        <v>3406.9894131185201</v>
+      </c>
+      <c r="H64" s="16"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="13">
+        <v>44178</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="15">
+        <v>7</v>
+      </c>
+      <c r="D65">
+        <v>100</v>
+      </c>
+      <c r="F65" s="6">
+        <v>3716.7368074963001</v>
+      </c>
+      <c r="H65" s="16"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="14">
+        <v>44179</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="15">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>100</v>
+      </c>
+      <c r="F66" s="6">
+        <v>1872.8149213655499</v>
+      </c>
+      <c r="H66" s="16"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="13">
+        <v>44180</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="15">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>100</v>
+      </c>
+      <c r="F67" s="6">
+        <v>2244.4890678941301</v>
+      </c>
+      <c r="H67" s="16"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="14">
+        <v>44181</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="15">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>100</v>
+      </c>
+      <c r="F68" s="6">
+        <v>2894.9150364403499</v>
+      </c>
+      <c r="H68" s="16"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="13">
+        <v>44182</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="15">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>100</v>
+      </c>
+      <c r="F69" s="6">
+        <v>1632.15880322209</v>
+      </c>
+      <c r="H69" s="16"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="14">
+        <v>44183</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="15">
+        <v>7</v>
+      </c>
+      <c r="D70">
+        <v>100</v>
+      </c>
+      <c r="F70" s="6">
+        <v>1857.5806345553101</v>
+      </c>
+      <c r="H70" s="16"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="13">
+        <v>44184</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="15">
+        <v>7</v>
+      </c>
+      <c r="D71">
+        <v>100</v>
+      </c>
+      <c r="F71" s="6">
+        <v>1645.89478875554</v>
+      </c>
+      <c r="H71" s="16"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="14">
+        <v>44185</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="15">
+        <v>7</v>
+      </c>
+      <c r="D72">
+        <v>100</v>
+      </c>
+      <c r="F72" s="6">
+        <v>1645.89478875554</v>
+      </c>
+      <c r="H72" s="16"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="13">
+        <v>44186</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="15">
+        <v>15</v>
+      </c>
+      <c r="D73">
+        <v>100</v>
+      </c>
+      <c r="F73" s="6">
+        <v>1434.20897583429</v>
+      </c>
+      <c r="H73" s="16"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="14">
+        <v>44187</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="15">
+        <v>15</v>
+      </c>
+      <c r="D74">
+        <v>100</v>
+      </c>
+      <c r="F74" s="6">
+        <v>1857.5806674338301</v>
+      </c>
+      <c r="H74" s="16"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="13">
+        <v>44188</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="15">
+        <v>15</v>
+      </c>
+      <c r="D75">
+        <v>100</v>
+      </c>
+      <c r="F75" s="6">
+        <v>1434.20897583429</v>
+      </c>
+      <c r="H75" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
